--- a/Excel/Excel Tutorial1.xlsx
+++ b/Excel/Excel Tutorial1.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250AC9D1-020B-459F-AFFE-96F4ED997391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD7FE9-7E7B-4383-8B9D-7DD29618A721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="19" state="hidden" r:id="rId1"/>
-    <sheet name="Characteristics of Cell" sheetId="1" r:id="rId2"/>
-    <sheet name="Relative Reference" sheetId="2" r:id="rId3"/>
-    <sheet name="Absolute Refrence" sheetId="3" r:id="rId4"/>
-    <sheet name="Mixed Reference" sheetId="4" r:id="rId5"/>
-    <sheet name="Speak Cells" sheetId="5" r:id="rId6"/>
-    <sheet name="Text to Columns" sheetId="6" r:id="rId7"/>
-    <sheet name="Comments" sheetId="7" r:id="rId8"/>
-    <sheet name="Advance Fill " sheetId="11" r:id="rId9"/>
-    <sheet name="Fill Series" sheetId="12" r:id="rId10"/>
-    <sheet name="Flash Fill" sheetId="13" r:id="rId11"/>
-    <sheet name="Viewing Worksheet" sheetId="14" r:id="rId12"/>
-    <sheet name="Adjusting Worksheet" sheetId="15" r:id="rId13"/>
-    <sheet name="Working with Worksheet (2)" sheetId="18" r:id="rId14"/>
-    <sheet name="View Files Side by Side" sheetId="20" r:id="rId15"/>
-    <sheet name="Sheet6" sheetId="21" r:id="rId16"/>
-    <sheet name="Sheet7" sheetId="22" r:id="rId17"/>
+    <sheet name="Tabs and Groups" sheetId="23" r:id="rId2"/>
+    <sheet name="Editing" sheetId="24" r:id="rId3"/>
+    <sheet name="Characteristics of Cell" sheetId="1" r:id="rId4"/>
+    <sheet name="Relative Reference" sheetId="2" r:id="rId5"/>
+    <sheet name="Absolute Refrence" sheetId="3" r:id="rId6"/>
+    <sheet name="Mixed Reference" sheetId="4" r:id="rId7"/>
+    <sheet name="Speak Cells" sheetId="5" r:id="rId8"/>
+    <sheet name="Text to Columns" sheetId="6" r:id="rId9"/>
+    <sheet name="Comments" sheetId="7" r:id="rId10"/>
+    <sheet name="Advance Fill " sheetId="11" r:id="rId11"/>
+    <sheet name="Fill Series" sheetId="12" r:id="rId12"/>
+    <sheet name="Flash Fill" sheetId="13" r:id="rId13"/>
+    <sheet name="Viewing Worksheet" sheetId="14" r:id="rId14"/>
+    <sheet name="Adjusting Worksheet" sheetId="15" r:id="rId15"/>
+    <sheet name="Working with Worksheet (2)" sheetId="18" r:id="rId16"/>
+    <sheet name="View Files Side by Side" sheetId="20" r:id="rId17"/>
+    <sheet name="Sheet6" sheetId="21" r:id="rId18"/>
+    <sheet name="Sheet7" sheetId="22" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="166">
   <si>
     <t>List of things that can go in Cell</t>
   </si>
@@ -558,13 +560,68 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Tabs and Groups</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove </t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>go to</t>
+  </si>
+  <si>
+    <t>Control + G</t>
+  </si>
+  <si>
+    <t>goto Special</t>
+  </si>
+  <si>
+    <t>omkar is agood boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency </t>
+  </si>
+  <si>
+    <t>Control + ~ to se the function on the cell</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>omkar is a good boy</t>
+  </si>
+  <si>
+    <t>Control + D</t>
+  </si>
+  <si>
+    <t>Control + R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ [$INR]\ * #,##0.00_ ;_ [$INR]\ * \-#,##0.00_ ;_ [$INR]\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +666,22 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <u/>
       <sz val="11"/>
@@ -695,10 +768,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -734,8 +808,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1025,6 +1108,699 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5A01C1-566F-4983-AA0E-4CCC229AE3DD}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="B2:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F67462-F412-4321-B721-02E43CF41409}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="B2:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>70</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>90</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>110</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>120</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>130</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>140</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0170E77E-BA4D-48E8-BEA6-51341CDF10F7}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B2:K12"/>
@@ -1213,7 +1989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A26636-A892-4998-A639-BA01C3FC6AC8}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A2:L22"/>
@@ -1559,7 +2335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75420A7D-97CC-4C70-B323-4F096F0B8303}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -1626,7 +2402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52860495-CEE9-4449-B5F8-735B3B112299}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:K18"/>
@@ -1813,7 +2589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54751EE-0D68-4AE7-8469-81A2A81243BC}">
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FFFF0000"/>
@@ -1869,7 +2645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7814668D-4C48-4C7D-ACCC-F50CD3547BEB}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1930,7 +2706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32186D81-CADB-4867-9360-CD84C82A50C7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1958,14 +2734,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA4DEA7-4CDE-4027-B170-CBD247C983AD}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1987,53 +2763,265 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B0D8F9-CA82-454D-B3A9-A7A36A933DA3}">
+  <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="b">
-        <v>0</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF343722-47B5-4AE1-855E-BB014CF19F33}">
+  <dimension ref="B3:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9 E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E3:E8)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>SUM(E3:E10)+9000</f>
+        <v>9480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B3:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>343</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="G7" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="G8" s="21">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="G9" s="21">
+        <f>SUM(G5:G8)</f>
+        <v>7</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="O9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="O10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="O11" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B6:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDBB5BB-8F09-40ED-A02A-84E7E9C235BC}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,7 +3063,7 @@
         <v>11000</v>
       </c>
       <c r="E4">
-        <f>C4-D4</f>
+        <f t="shared" ref="E4:E9" si="0">C4-D4</f>
         <v>9000</v>
       </c>
       <c r="G4" t="s">
@@ -2092,6 +3080,10 @@
       <c r="D5">
         <v>12000</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2103,6 +3095,10 @@
       <c r="D6">
         <v>13000</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
@@ -2117,6 +3113,10 @@
       <c r="D7">
         <v>14000</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -2128,6 +3128,10 @@
       <c r="D8">
         <v>15000</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -2139,6 +3143,13 @@
       <c r="D9">
         <v>16000</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11">
@@ -2160,7 +3171,7 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E17" si="0">D12-C12</f>
+        <f t="shared" ref="E12:E17" si="1">D12-C12</f>
         <v>80</v>
       </c>
     </row>
@@ -2172,7 +3183,7 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -2184,7 +3195,7 @@
         <v>100</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2196,7 +3207,7 @@
         <v>100</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
@@ -2208,7 +3219,7 @@
         <v>100</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -2220,7 +3231,7 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2229,13 +3240,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB687B9-3F9F-4D14-A757-B8D3FEEDD430}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:P25"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,23 +3637,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754BB74A-C303-4233-AD48-F339C4AAC024}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="18" t="s">
         <v>29</v>
@@ -2653,7 +3667,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="16" t="s">
         <v>30</v>
@@ -2664,7 +3678,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>31</v>
       </c>
@@ -2685,7 +3699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="4">
         <v>10</v>
@@ -2695,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:G11" si="0">$B7*D$6</f>
+        <f t="shared" ref="D7:G7" si="0">$B7*D$6</f>
         <v>20</v>
       </c>
       <c r="E7" s="3">
@@ -2707,41 +3721,37 @@
         <v>40</v>
       </c>
       <c r="G7" s="3">
-        <f ca="1">B7*G7</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>$B7*G$6</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="4">
         <v>20</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:C11" si="1">$B8*C$6</f>
+        <f t="shared" ref="C8:G11" si="1">$B8*C$6</f>
         <v>20</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="4">
         <v>30</v>
@@ -2751,23 +3761,23 @@
         <v>30</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="4">
         <v>40</v>
@@ -2777,23 +3787,23 @@
         <v>40</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="4">
         <v>50</v>
@@ -2803,28 +3813,34 @@
         <v>50</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
@@ -2839,53 +3855,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A019C7-C26E-4F70-AF76-0430771B4456}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>36</v>
       </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2893,18 +3935,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17ED332-E7FE-4DF1-825C-4DC168D674AC}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -2957,700 +3999,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5A01C1-566F-4983-AA0E-4CCC229AE3DD}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F67462-F412-4321-B721-02E43CF41409}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="B2:R18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>60</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>70</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3">
-        <v>80</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>90</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
-        <v>110</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <v>120</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
-        <v>130</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>140</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>